--- a/DATA_goal/Junction_Flooding_191.xlsx
+++ b/DATA_goal/Junction_Flooding_191.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41623.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.09</v>
+        <v>3.01</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.64</v>
+        <v>2.26</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>32.25</v>
+        <v>3.22</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>159.72</v>
+        <v>15.97</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.39</v>
+        <v>3.04</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>29.18</v>
+        <v>2.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41623.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.28</v>
+        <v>1.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.23</v>
+        <v>6.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41623.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.22</v>
+        <v>2.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.35</v>
+        <v>1.84</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>119.69</v>
+        <v>11.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.27</v>
+        <v>2.33</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>1.51</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>15.13</v>
-      </c>
       <c r="AA4" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41623.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.83</v>
+        <v>2.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.68</v>
+        <v>4.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.78</v>
+        <v>3.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.22</v>
+        <v>6.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.1</v>
+        <v>1.91</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.37</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>253.63</v>
+        <v>25.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.9</v>
+        <v>4.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.14</v>
+        <v>3.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.74</v>
+        <v>3.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.44</v>
+        <v>5.84</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41623.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.51</v>
+        <v>3.45</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>28.01</v>
+        <v>2.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>50.13</v>
+        <v>5.01</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>181.53</v>
+        <v>18.15</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.75</v>
+        <v>3.48</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>23.29</v>
+        <v>2.33</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>24.16</v>
+        <v>2.42</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>45.73</v>
+        <v>4.57</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41623.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>42.45</v>
+        <v>4.24</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>34.66</v>
+        <v>3.47</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>59.37</v>
+        <v>5.94</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.51</v>
+        <v>1.05</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>18.08</v>
+        <v>1.81</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>225.02</v>
+        <v>22.5</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>42.68</v>
+        <v>4.27</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>28.71</v>
+        <v>2.87</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>28.9</v>
+        <v>2.89</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.85</v>
+        <v>1.78</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>53.96</v>
+        <v>5.4</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41623.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.85</v>
+        <v>2.18</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>47.67</v>
+        <v>4.77</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>39.04</v>
+        <v>3.9</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.02</v>
+        <v>6.7</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.12</v>
+        <v>1.91</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>253.64</v>
+        <v>25.36</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.95</v>
+        <v>4.8</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>32.31</v>
+        <v>3.23</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>32.61</v>
+        <v>3.26</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.35</v>
+        <v>1.23</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>60.93</v>
+        <v>6.09</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41623.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>26.14</v>
+        <v>2.61</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>39.85</v>
+        <v>3.99</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>135.75</v>
+        <v>13.58</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>26.39</v>
+        <v>2.64</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>36.39</v>
+        <v>3.64</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41623.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.72</v>
+        <v>2.27</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>49.55</v>
+        <v>4.95</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>40.67</v>
+        <v>4.07</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>67.90000000000001</v>
+        <v>6.79</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>27.57</v>
+        <v>2.76</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25.42</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>263.93</v>
+        <v>26.39</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>49.8</v>
+        <v>4.98</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.45</v>
+        <v>1.64</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>33.6</v>
+        <v>3.36</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>33.3</v>
+        <v>3.33</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.87</v>
+        <v>2.09</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>61.63</v>
+        <v>6.16</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.57</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_191.xlsx
+++ b/DATA_goal/Junction_Flooding_191.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -464,18 +464,18 @@
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41623.34027777778</v>
+        <v>44872.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.39</v>
+        <v>0.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.01</v>
+        <v>0.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.14</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.22</v>
+        <v>0.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.13</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.14</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.18</v>
+        <v>0.23</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.11</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.97</v>
+        <v>1.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.21</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.95</v>
+        <v>0.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.16</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.92</v>
+        <v>0.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41623.34722222222</v>
+        <v>44872.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.23</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.9</v>
+        <v>1.54</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.44</v>
-      </c>
       <c r="P3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.02</v>
+        <v>10.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AB3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.21</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41623.35416666666</v>
+        <v>44872.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.52</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>1.84</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="J4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.93</v>
+        <v>1.37</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.99</v>
+        <v>1.4</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.83</v>
+        <v>1.18</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.77</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.97</v>
+        <v>17.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.33</v>
+        <v>3.36</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.77</v>
+        <v>1.13</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.22</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.51</v>
+        <v>2.23</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.98</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.72</v>
+        <v>1.03</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.8</v>
+        <v>4.04</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41623.36111111111</v>
+        <v>44872.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.18</v>
+        <v>2.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.77</v>
+        <v>5.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.88</v>
+        <v>4.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.42</v>
+        <v>7.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.36</v>
+        <v>27.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.79</v>
+        <v>5.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.21</v>
+        <v>3.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.17</v>
+        <v>3.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.84</v>
+        <v>6.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.98</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41623.36805555555</v>
+        <v>44872.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.58</v>
+        <v>13.8</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.17</v>
+        <v>10.33</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.45</v>
+        <v>30.33</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.8</v>
+        <v>24.67</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.24</v>
+        <v>10.94</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.01</v>
+        <v>45.52</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.92</v>
+        <v>16.73</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.85</v>
+        <v>7.56</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.25</v>
+        <v>11.34</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.38</v>
+        <v>12.35</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.47</v>
+        <v>12.75</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.24</v>
+        <v>10.78</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.76</v>
+        <v>15.9</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.05</v>
+        <v>8.82</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>18.15</v>
+        <v>158.5</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.48</v>
+        <v>30.57</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.15</v>
+        <v>10.2</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.33</v>
+        <v>20.58</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.22</v>
+        <v>10.97</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>1.7</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.42</v>
+        <v>21.91</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.01</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.9</v>
+        <v>7.73</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.06</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.45</v>
+        <v>12.78</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.57</v>
+        <v>41.6</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.64</v>
+        <v>5.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41623.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41623.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41623.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41623.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41623.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>4.95</v>
+        <v>12.72</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_191.xlsx
+++ b/DATA_goal/Junction_Flooding_191.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -451,29 +451,29 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,52 +655,52 @@
         <v>44872.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44872.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2</v>
+        <v>20.01</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.75</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.95</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.09</v>
+        <v>100.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44872.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.35</v>
+        <v>33.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.7</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>17.55</v>
+        <v>175.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.36</v>
+        <v>33.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.25</v>
+        <v>22.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.23</v>
+        <v>22.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.04</v>
+        <v>40.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44872.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.23</v>
+        <v>52.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.27</v>
+        <v>42.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.86</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.19</v>
+        <v>71.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.89</v>
+        <v>28.9</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.12</v>
+        <v>21.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.2</v>
+        <v>22.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.86</v>
+        <v>278.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.25</v>
+        <v>52.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.54</v>
+        <v>35.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.56</v>
+        <v>35.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.2</v>
+        <v>22.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.55</v>
+        <v>65.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_191.xlsx
+++ b/DATA_goal/Junction_Flooding_191.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,97 +658,97 @@
         <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>2.45</v>
@@ -762,97 +762,97 @@
         <v>8.800000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.51</v>
+        <v>6.514</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.01</v>
+        <v>20.013</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.44</v>
+        <v>15.443</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.03</v>
+        <v>7.028</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>21.75</v>
+        <v>21.751</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.65</v>
+        <v>10.646</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.78</v>
+        <v>4.784</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.45</v>
+        <v>7.451</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.33</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.137</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.28</v>
+        <v>2.284</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>6.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.95</v>
+        <v>10.953</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.94</v>
+        <v>100.944</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.71</v>
+        <v>19.712</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.99</v>
+        <v>12.989</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>7.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.667</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.77</v>
+        <v>5.772</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.97</v>
+        <v>4.968</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>6.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.32</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.7</v>
+        <v>19.702</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.44</v>
+        <v>3.435</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>8.59</v>
@@ -863,103 +863,103 @@
         <v>44872.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.15</v>
+        <v>15.154</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.32</v>
+        <v>11.324</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.51</v>
+        <v>33.513</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27</v>
+        <v>27.004</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.02</v>
+        <v>12.024</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.17</v>
+        <v>44.169</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.36</v>
+        <v>18.362</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.282999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>12.52</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.69</v>
+        <v>13.693</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14</v>
+        <v>14.002</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.86</v>
+        <v>3.861</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.84</v>
+        <v>11.842</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.7</v>
+        <v>17.699</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.65</v>
+        <v>9.654</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.144</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.285</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>175.54</v>
+        <v>175.537</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.57</v>
+        <v>33.573</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.33</v>
+        <v>11.332</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.52</v>
+        <v>22.521</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>12.15</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>22.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.787000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.5</v>
+        <v>8.504</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>10.31</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.09</v>
+        <v>14.088</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.41</v>
+        <v>40.408</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.11</v>
+        <v>6.115</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.11</v>
+        <v>14.111</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>21.86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44872.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.52</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.72</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_191.xlsx
+++ b/DATA_goal/Junction_Flooding_191.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44872.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.86</v>
+        <v>23.856</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.88</v>
+        <v>17.878</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.3</v>
+        <v>52.295</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>42.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.86</v>
+        <v>18.861</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.91</v>
+        <v>71.911</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.9</v>
+        <v>28.903</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.03</v>
+        <v>13.027</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.54</v>
+        <v>19.539</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.19</v>
+        <v>21.191</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.03</v>
+        <v>22.035</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.04</v>
+        <v>6.037</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.65</v>
+        <v>18.651</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.26</v>
+        <v>27.257</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.32</v>
+        <v>15.322</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.572</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.63</v>
+        <v>278.634</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.54</v>
+        <v>52.539</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>17.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.43</v>
+        <v>35.434</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>18.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.81</v>
+        <v>2.811</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.56</v>
+        <v>35.564</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.31</v>
+        <v>15.314</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.36</v>
+        <v>13.361</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.97</v>
+        <v>15.968</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.04</v>
+        <v>22.036</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.53</v>
+        <v>65.532</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.73</v>
+        <v>9.731999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.86</v>
+        <v>21.863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44872.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.72</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_191.xlsx
+++ b/DATA_goal/Junction_Flooding_191.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44872.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.856</v>
+        <v>23.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.878</v>
+        <v>17.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.295</v>
+        <v>52.3</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>42.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.861</v>
+        <v>18.86</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.911</v>
+        <v>71.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.903</v>
+        <v>28.9</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.027</v>
+        <v>13.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.539</v>
+        <v>19.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.191</v>
+        <v>21.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.035</v>
+        <v>22.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.037</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.651</v>
+        <v>18.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.257</v>
+        <v>27.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.322</v>
+        <v>15.32</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.572</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.634</v>
+        <v>278.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.539</v>
+        <v>52.54</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>17.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.434</v>
+        <v>35.43</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>18.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.811</v>
+        <v>2.81</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.564</v>
+        <v>35.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.314</v>
+        <v>15.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.361</v>
+        <v>13.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.968</v>
+        <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.036</v>
+        <v>22.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.532</v>
+        <v>65.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.731999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.863</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44872.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.52</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.72</v>
+        <v>21.86</v>
       </c>
     </row>
   </sheetData>
